--- a/win/PasswordBox/Weteoes/Software.xlsx
+++ b/win/PasswordBox/Weteoes/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E41CB4-22E2-484F-BA9C-ECD3D74D4095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E877014-2098-41AB-83BF-50DA3A66D5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="依赖性" sheetId="2" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WebUI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dll_SRW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,6 +40,10 @@
   </si>
   <si>
     <t>libcrypto-1_1-x64.dll, Dll_Management, Dll_Config</t>
+  </si>
+  <si>
+    <t>WebUI / Operating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -111,14 +111,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586BE86-0FEC-4A29-985C-A9C95E84BB7F}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -413,70 +413,70 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127762D-566F-4FCE-BFCA-BD6C60A77DDF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>23340</v>

--- a/win/PasswordBox/Weteoes/Software.xlsx
+++ b/win/PasswordBox/Weteoes/Software.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E877014-2098-41AB-83BF-50DA3A66D5B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F616D-D378-4159-BE63-C30C0340A01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12765" yWindow="2355" windowWidth="18105" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="依赖性" sheetId="2" r:id="rId1"/>
-    <sheet name="端口" sheetId="3" r:id="rId2"/>
+    <sheet name="退出代码" sheetId="4" r:id="rId2"/>
+    <sheet name="端口" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>左边需要右边作为依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +45,36 @@
   <si>
     <t>WebUI / Operating</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadyDll</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>ReadyProcess</t>
+  </si>
+  <si>
+    <t>ReadyLog</t>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPasswordBoxApp</t>
   </si>
 </sst>
 </file>
@@ -73,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -83,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -120,6 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -403,7 +441,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -494,11 +532,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3F8DC4-F1B4-4FBD-864E-F4C036715412}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127762D-566F-4FCE-BFCA-BD6C60A77DDF}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
